--- a/Data/SeenRx/SeenRx_CKJ.xlsx
+++ b/Data/SeenRx/SeenRx_CKJ.xlsx
@@ -14,120 +14,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CKJ</t>
+  </si>
+  <si>
+    <t>CKJ10</t>
+  </si>
+  <si>
+    <t>CKJ11</t>
+  </si>
+  <si>
+    <t>CKJ12</t>
+  </si>
+  <si>
+    <t>CKJ13</t>
+  </si>
+  <si>
+    <t>CKJ14</t>
+  </si>
+  <si>
+    <t>CKJ15</t>
+  </si>
+  <si>
+    <t>CKJ16</t>
   </si>
   <si>
     <t>CKJ20</t>
   </si>
   <si>
+    <t>CKJ21</t>
+  </si>
+  <si>
+    <t>CKJ22</t>
+  </si>
+  <si>
+    <t>CKJ23</t>
+  </si>
+  <si>
+    <t>CKJ24</t>
+  </si>
+  <si>
+    <t>CKJ25</t>
+  </si>
+  <si>
+    <t>CKJ26</t>
+  </si>
+  <si>
+    <t>CKJ30</t>
+  </si>
+  <si>
+    <t>CKJ31</t>
+  </si>
+  <si>
+    <t>CKJ32</t>
+  </si>
+  <si>
+    <t>CKJ33</t>
+  </si>
+  <si>
+    <t>CKJ34</t>
+  </si>
+  <si>
+    <t>CKJ35</t>
+  </si>
+  <si>
+    <t>CKJ40</t>
+  </si>
+  <si>
+    <t>CKJ41</t>
+  </si>
+  <si>
+    <t>CKJ42</t>
+  </si>
+  <si>
+    <t>CKJ43</t>
+  </si>
+  <si>
+    <t>CKJ44</t>
+  </si>
+  <si>
+    <t>CKJ45</t>
+  </si>
+  <si>
+    <t>CKJ46</t>
+  </si>
+  <si>
     <t>CKJ50</t>
   </si>
   <si>
-    <t>CKJ40</t>
-  </si>
-  <si>
-    <t>CKJ10</t>
-  </si>
-  <si>
-    <t>CKJ30</t>
+    <t>CKJ51</t>
+  </si>
+  <si>
+    <t>CKJ52</t>
+  </si>
+  <si>
+    <t>CKJ53</t>
+  </si>
+  <si>
+    <t>CKJ54</t>
+  </si>
+  <si>
+    <t>CKJ55</t>
   </si>
   <si>
     <t>CKJ56</t>
-  </si>
-  <si>
-    <t>CKJ33</t>
-  </si>
-  <si>
-    <t>CKJ13</t>
-  </si>
-  <si>
-    <t>CKJ34</t>
-  </si>
-  <si>
-    <t>CKJ46</t>
-  </si>
-  <si>
-    <t>CKJ44</t>
-  </si>
-  <si>
-    <t>CKJ22</t>
-  </si>
-  <si>
-    <t>CKJ42</t>
-  </si>
-  <si>
-    <t>CKJ52</t>
-  </si>
-  <si>
-    <t>CKJ25</t>
-  </si>
-  <si>
-    <t>CKJ32</t>
-  </si>
-  <si>
-    <t>CKJ11</t>
-  </si>
-  <si>
-    <t>CKJ31</t>
-  </si>
-  <si>
-    <t>CKJ14</t>
-  </si>
-  <si>
-    <t>CKJ21</t>
-  </si>
-  <si>
-    <t>CKJ16</t>
-  </si>
-  <si>
-    <t>CKJ55</t>
-  </si>
-  <si>
-    <t>CKJ35</t>
-  </si>
-  <si>
-    <t>CKJ54</t>
-  </si>
-  <si>
-    <t>CKJ23</t>
-  </si>
-  <si>
-    <t>CKJ12</t>
-  </si>
-  <si>
-    <t>CKJ24</t>
-  </si>
-  <si>
-    <t>CKJ15</t>
   </si>
 </sst>
 </file>
@@ -485,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +549,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -560,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -592,31 +613,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -627,28 +648,28 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -656,31 +677,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -703,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -720,31 +741,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -752,31 +773,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -784,31 +805,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -848,22 +869,22 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -880,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -898,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -912,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -924,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -944,10 +965,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -962,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1000,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1008,31 +1029,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1040,13 +1061,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1055,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -1072,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1104,31 +1125,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1136,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1154,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1168,22 +1189,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1192,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1200,31 +1221,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1244,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1270,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1279,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1331,28 +1352,28 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1360,31 +1381,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1392,13 +1413,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1407,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1416,7 +1437,231 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CKJ.xlsx
+++ b/Data/SeenRx/SeenRx_CKJ.xlsx
@@ -549,31 +549,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -581,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -613,13 +613,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -645,25 +645,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -677,31 +677,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -805,31 +805,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,31 +933,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1029,31 +1029,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1061,31 +1061,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,28 +1125,28 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1221,13 +1221,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1349,10 +1349,10 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1428,16 +1428,16 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1445,31 +1445,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1477,7 +1477,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1591,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1605,13 +1605,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>

--- a/Data/SeenRx/SeenRx_CKJ.xlsx
+++ b/Data/SeenRx/SeenRx_CKJ.xlsx
@@ -549,31 +549,31 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>36</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -581,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -613,13 +613,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -645,13 +645,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -660,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -709,13 +709,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -741,31 +741,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -805,28 +805,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -869,25 +869,25 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,31 +933,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1221,13 +1221,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1349,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1445,31 +1445,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1492,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1509,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1553,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1605,10 +1605,10 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>

--- a/Data/SeenRx/SeenRx_CKJ.xlsx
+++ b/Data/SeenRx/SeenRx_CKJ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CKJ</t>
@@ -506,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,208 +552,271 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>43</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>36</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -756,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -765,15 +837,24 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -797,94 +878,121 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -893,12 +1001,21 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -907,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -916,21 +1033,30 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -939,129 +1065,165 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
+      <c r="J17">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1079,30 +1241,39 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1111,146 +1282,191 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1279,19 +1495,28 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1303,187 +1528,241 @@
         <v>3</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <v>5</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1492,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1503,16 +1782,25 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1533,15 +1821,24 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1556,59 +1853,77 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1631,19 +1946,28 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1652,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1661,6 +1985,15 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>0</v>
       </c>
     </row>
